--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42995,6 +42995,41 @@
         <v>806900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1260000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43030,6 +43030,41 @@
         <v>1260000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,6 +43065,41 @@
         <v>1380000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>915800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43100,6 +43100,41 @@
         <v>915800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>933100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>933100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1081100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>1081100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>114500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>114500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1706800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>1706800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2020000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>2020000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>313000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>313000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2546000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>2546000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4385200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>4385200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3848600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,76 @@
         <v>3848600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3007100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8076300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,76 @@
         <v>8076300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>997800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2997000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>2997000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2288400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>2288400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1066000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>1066000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4806300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>4806300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5196500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>5196500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1220200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1247500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>1247500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5228200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>5228200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3760700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68405,6 +68405,41 @@
         <v>3760700</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>9875400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68440,6 +68440,41 @@
         <v>9875400</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>8466900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68475,6 +68475,41 @@
         <v>8466900</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>1285000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68510,6 +68510,41 @@
         <v>1285000</v>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>4474100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68545,6 +68545,41 @@
         <v>4474100</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>1954300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68580,6 +68580,41 @@
         <v>1954300</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>305000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1949"/>
+  <dimension ref="A1:I1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68615,6 +68615,41 @@
         <v>305000</v>
       </c>
     </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>610100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1950"/>
+  <dimension ref="A1:I1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68650,6 +68650,41 @@
         <v>610100</v>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>1397500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1951"/>
+  <dimension ref="A1:I1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68685,6 +68685,41 @@
         <v>1397500</v>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>767500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1952"/>
+  <dimension ref="A1:I1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68720,6 +68720,41 @@
         <v>767500</v>
       </c>
     </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>1660200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1953"/>
+  <dimension ref="A1:I1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68755,6 +68755,41 @@
         <v>1660200</v>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>3101400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1954"/>
+  <dimension ref="A1:I1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68790,6 +68790,41 @@
         <v>3101400</v>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>1211000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1955"/>
+  <dimension ref="A1:I1956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68825,6 +68825,41 @@
         <v>1211000</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>5880500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68860,6 +68860,41 @@
         <v>5880500</v>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>1743600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5068.xlsx
+++ b/data/5068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68895,6 +68895,41 @@
         <v>1743600</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>5068</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>LUSTER</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
